--- a/Assessment2/Work/AudioTable.xlsx
+++ b/Assessment2/Work/AudioTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgg\Desktop\School\Courses\BITS\Workspace\Assessment2\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E2F530-9BBC-4DB0-9C34-CFA956299BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7D8B3-274B-4E48-A3BC-9B32F826D175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71921F63-C147-498E-BB5D-DBD7ABBAAE8B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Sound Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Method Call</t>
   </si>
   <si>
-    <t>Looping</t>
-  </si>
-  <si>
     <t>Player Damage</t>
   </si>
   <si>
@@ -123,45 +120,9 @@
     <t>audio.stop("soundtrack")</t>
   </si>
   <si>
-    <t>Plays a single time whenever player jumps.</t>
-  </si>
-  <si>
-    <t>Plays continuously while player moves.</t>
-  </si>
-  <si>
-    <t>Plays continuously while enemy moves.</t>
-  </si>
-  <si>
-    <t>Players a single time when player attacks.</t>
-  </si>
-  <si>
-    <t>Plays a single time when player takes damage.</t>
-  </si>
-  <si>
-    <t>Plays a single time when enemy takes damage.</t>
-  </si>
-  <si>
-    <t>Plays a single time upon player death.</t>
-  </si>
-  <si>
-    <t>Action.</t>
-  </si>
-  <si>
     <t>Description.</t>
   </si>
   <si>
-    <t>Plays a single time upon enemy death.</t>
-  </si>
-  <si>
-    <t>Plays whenever player picks up scrap.</t>
-  </si>
-  <si>
-    <t>Plays continuously throughout course of the game.</t>
-  </si>
-  <si>
-    <t>Plays whenever game is paused or unpaused.</t>
-  </si>
-  <si>
     <t>Swooshing, springy, clattering.</t>
   </si>
   <si>
@@ -193,6 +154,15 @@
   </si>
   <si>
     <t>Multiple quick, light beeps ascending in succession.</t>
+  </si>
+  <si>
+    <t>Player Land</t>
+  </si>
+  <si>
+    <t>audio.play("player.land")</t>
+  </si>
+  <si>
+    <t>Light thud. Like a bag of potatoes being dropped on dirt.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -417,13 +387,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,245 +706,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A021FDA-2E2B-4CB6-B0F0-FE6C3FC594BE}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="68.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
